--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_273.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_273.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,187 +488,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:02.680000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,532 +676,498 @@
           <t>schubert-winterreise_142</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[('0:00:00.700000', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:13.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[('0:00:14.740000', '0:00:20.740000'), ('0:01:06.920000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2613430127041742</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D', 'G', 'C', 'D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[['A', 'D', 'G', 'A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[('0:00:53.176848', '0:01:03.382018')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:31.434580', '0:00:40.304603')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[('0:00:10.240000', '0:00:21.020000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.36, 5.68)]</t>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
